--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C031BE-9B28-44CD-BA47-1CF1A8767D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -24,17 +25,23 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId15"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -699,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1105,19 +1112,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1184,7 +1191,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1211,7 +1218,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1273,7 +1280,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1281,7 +1288,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1297,7 +1304,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -1305,7 +1312,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1321,7 +1328,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1337,7 +1344,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -1345,7 +1352,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -1355,38 +1362,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E18" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E20" r:id="rId8"/>
-    <hyperlink ref="E21" r:id="rId9"/>
-    <hyperlink ref="E23" r:id="rId10"/>
-    <hyperlink ref="E22" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1464,7 +1471,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -1542,7 +1549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1594,7 +1601,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -1620,7 +1627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -1646,7 +1653,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -1724,7 +1731,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -1854,7 +1861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -1880,7 +1887,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -1906,7 +1913,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -1958,7 +1965,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2010,7 +2017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2062,7 +2069,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2088,7 +2095,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2131,25 +2138,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -2178,7 +2185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
@@ -2207,7 +2214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2232,7 +2239,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2255,7 +2262,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2278,7 +2285,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2301,7 +2308,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2324,7 +2331,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2347,7 +2354,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -2397,7 +2404,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -2422,7 +2429,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -2472,7 +2479,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -2495,7 +2502,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -2520,7 +2527,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -2570,7 +2577,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -2595,7 +2602,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -2670,7 +2677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -2695,7 +2702,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2718,7 +2725,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2743,7 +2750,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2768,7 +2775,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2793,7 +2800,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2850,25 +2857,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +2898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2914,7 +2921,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2933,7 +2940,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2952,7 +2959,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2971,7 +2978,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3009,7 +3016,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3051,7 +3058,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -3108,7 +3115,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -3150,7 +3157,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -3196,7 +3203,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -3217,7 +3224,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -3238,7 +3245,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -3261,7 +3268,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -3284,7 +3291,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -3307,7 +3314,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -3330,7 +3337,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -3353,7 +3360,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3376,7 +3383,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3399,7 +3406,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -3422,7 +3429,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3445,7 +3452,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -3481,25 +3488,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3522,7 +3529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3545,7 +3552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3567,7 +3574,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -3578,7 +3585,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3589,7 +3596,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3600,7 +3607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3611,7 +3618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3624,35 +3631,35 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -3663,7 +3670,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -3678,7 +3685,7 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -3693,7 +3700,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -3708,7 +3715,7 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -3723,7 +3730,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -3738,7 +3745,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -3749,7 +3756,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -3762,7 +3769,7 @@
       </c>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -3775,12 +3782,12 @@
       </c>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3791,7 +3798,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3802,12 +3809,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3815,7 +3822,7 @@
         <v>705.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3830,21 +3837,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3858,7 +3865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3886,7 +3893,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3900,7 +3907,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -3914,7 +3921,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -3928,7 +3935,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
@@ -3942,7 +3949,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
@@ -3956,7 +3963,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -3970,7 +3977,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -3984,7 +3991,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -3998,7 +4005,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
@@ -4012,7 +4019,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
@@ -4026,7 +4033,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
@@ -4040,7 +4047,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
@@ -4054,7 +4061,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
@@ -4082,7 +4089,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
@@ -4096,7 +4103,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
@@ -4110,7 +4117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
@@ -4138,7 +4145,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
@@ -4152,7 +4159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -4180,7 +4187,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -4194,7 +4201,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
@@ -4215,21 +4222,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4237,7 +4244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4245,7 +4252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4256,22 +4263,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4305,7 +4312,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -4322,7 +4329,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -4339,7 +4346,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
@@ -4373,7 +4380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -4390,7 +4397,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -4407,7 +4414,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -4424,7 +4431,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -4441,7 +4448,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
@@ -4458,7 +4465,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -4492,7 +4499,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -4526,7 +4533,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -4543,7 +4550,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -4560,7 +4567,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -4577,7 +4584,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
@@ -4594,7 +4601,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -4611,7 +4618,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
@@ -4628,7 +4635,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -4645,7 +4652,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -4662,7 +4669,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
@@ -4679,7 +4686,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -4696,7 +4703,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -4730,7 +4737,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4747,7 +4754,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
@@ -4764,7 +4771,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -4781,7 +4788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -4798,7 +4805,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -4815,7 +4822,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -4832,7 +4839,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -4849,7 +4856,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -4866,7 +4873,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -4883,7 +4890,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -4900,7 +4907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
@@ -4917,7 +4924,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
@@ -4934,7 +4941,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -4951,7 +4958,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -4968,7 +4975,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
@@ -4985,7 +4992,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -5002,7 +5009,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
@@ -5019,7 +5026,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -5036,7 +5043,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -5053,7 +5060,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -5070,7 +5077,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -5087,7 +5094,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -5104,7 +5111,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -5121,7 +5128,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
@@ -5138,7 +5145,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -5155,7 +5162,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -5172,7 +5179,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -5189,7 +5196,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>96</v>
       </c>
@@ -5206,7 +5213,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
@@ -5240,7 +5247,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
@@ -5257,7 +5264,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
@@ -5274,7 +5281,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -5291,7 +5298,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -5308,7 +5315,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
@@ -5325,7 +5332,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
@@ -5342,7 +5349,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>96</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
@@ -5376,7 +5383,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
@@ -5393,7 +5400,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
@@ -5410,7 +5417,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -5427,7 +5434,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -5444,7 +5451,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>96</v>
       </c>
@@ -5461,7 +5468,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -5478,7 +5485,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
@@ -5495,7 +5502,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
@@ -5512,7 +5519,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
@@ -5529,7 +5536,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
@@ -5546,7 +5553,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -5563,7 +5570,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -5580,7 +5587,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
@@ -5597,7 +5604,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
@@ -5614,7 +5621,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
@@ -5631,7 +5638,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
@@ -5648,7 +5655,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
@@ -5665,7 +5672,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>96</v>
       </c>
@@ -5682,7 +5689,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -5699,7 +5706,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -5733,7 +5740,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -5750,7 +5757,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
@@ -5767,7 +5774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
@@ -5784,7 +5791,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -5801,7 +5808,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
@@ -5818,7 +5825,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
@@ -5835,7 +5842,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -5852,7 +5859,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -5869,7 +5876,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -5886,7 +5893,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -5920,7 +5927,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -5944,18 +5951,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -5966,7 +5973,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5977,7 +5984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -5988,7 +5995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -6005,20 +6012,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -6029,7 +6036,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6040,7 +6047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -6051,7 +6058,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -6062,7 +6069,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -6073,7 +6080,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -6084,7 +6091,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -6095,7 +6102,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -6106,7 +6113,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -6117,7 +6124,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -6128,7 +6135,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -6139,7 +6146,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -6150,7 +6157,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6161,7 +6168,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6172,7 +6179,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6183,7 +6190,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6194,7 +6201,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -6205,7 +6212,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -6216,7 +6223,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -6227,7 +6234,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6238,7 +6245,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -6249,7 +6256,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -6260,7 +6267,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -6271,7 +6278,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -6282,7 +6289,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -6293,7 +6300,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -6311,26 +6318,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6365,7 +6372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6400,7 +6407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6435,7 +6442,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6466,7 +6473,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -6501,7 +6508,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -6536,7 +6543,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -6556,7 +6563,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -6591,7 +6598,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -6626,7 +6633,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -6649,7 +6656,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -6672,7 +6679,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -6695,7 +6702,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -6718,7 +6725,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -6748,20 +6755,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6775,7 +6782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6803,7 +6810,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6817,7 +6824,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -6831,7 +6838,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -6852,20 +6859,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6879,7 +6886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6905,7 +6912,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -6917,7 +6924,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -6928,38 +6935,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2031</v>
-      </c>
-      <c r="B6" s="3">
-        <v>65.77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2036</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65.47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2041</v>
-      </c>
-      <c r="B8" s="3">
-        <v>65.41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6968,20 +6951,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -6989,7 +6972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6997,7 +6980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.09</v>
       </c>
@@ -7011,28 +6994,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7070,7 +7053,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -7108,7 +7091,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -7135,7 +7118,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -7164,7 +7147,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -7193,7 +7176,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -7207,7 +7190,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -7227,7 +7210,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -7256,7 +7239,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -7288,7 +7271,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7302,7 +7285,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -7323,19 +7306,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7349,7 +7332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -7363,7 +7346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>

--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C031BE-9B28-44CD-BA47-1CF1A8767D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6C1FF-2895-42CF-A276-11584D4BEC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,7 +787,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,7 +1186,7 @@
       <c r="C5" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1206,7 +1205,7 @@
       <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1214,7 +1213,7 @@
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1230,7 +1229,7 @@
       <c r="A10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1284,7 +1283,7 @@
       <c r="A16" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1292,7 +1291,7 @@
       <c r="A17" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1300,7 +1299,7 @@
       <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1308,7 +1307,7 @@
       <c r="A19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1316,7 +1315,7 @@
       <c r="A20" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1324,7 +1323,7 @@
       <c r="A21" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1332,7 +1331,7 @@
       <c r="A22" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1340,7 +1339,7 @@
       <c r="A23" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1732,65 +1731,65 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1802,21 +1801,21 @@
       <c r="F16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1828,21 +1827,21 @@
       <c r="F17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1854,114 +1853,114 @@
       <c r="F18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2480,225 +2479,225 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>50</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22">
         <v>85</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="E14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22">
         <v>15</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>56</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="22">
         <v>25.3</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
         <v>45</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>85</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="25">
         <v>38.799999999999997</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="E16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
         <v>75</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>87</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="25">
         <v>51.7</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
         <v>55</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>87</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="C18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="25">
         <v>51.7</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22">
         <v>55</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>87</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="C19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="22">
         <v>62.02</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23">
+      <c r="E19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22">
         <v>55</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="C20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="22">
         <v>42.47</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24">
+      <c r="E20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23">
         <v>55</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="23">
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22">
         <v>30</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22">
         <v>30</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="22" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2930,13 +2929,13 @@
       <c r="D3" s="6">
         <v>75.97</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F3" s="9">
         <v>1.919</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2944,18 +2943,18 @@
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>19.599999999999998</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="9">
         <v>2.8380000000000001</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2963,18 +2962,18 @@
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>24.633333333333336</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="9">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2987,13 +2986,13 @@
       <c r="D6" s="6">
         <v>30.57</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="9">
         <v>0.59699999999999998</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3006,13 +3005,13 @@
       <c r="D7" s="6">
         <v>34.31</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F7" s="9">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3025,13 +3024,13 @@
       <c r="D8" s="6">
         <v>45.56</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="9">
         <v>1.0289999999999999</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3042,19 +3041,19 @@
       <c r="B9" s="6">
         <v>3935</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="12">
         <v>43</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3063,8 +3062,8 @@
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>425.4</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3086,13 +3085,13 @@
       <c r="D11" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3105,13 +3104,13 @@
       <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3124,216 +3123,216 @@
       <c r="D13" s="7">
         <v>42</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>1284</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="23">
         <v>32.1</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="E14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="23">
         <v>0</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>3749</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="23">
         <v>112</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="23">
         <v>1.67</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>3644</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="23">
         <v>33</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="E16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="23">
         <v>1.39</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>952</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="24">
+      <c r="C17" s="25"/>
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="23">
         <v>11.33</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>952</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24">
+      <c r="C18" s="25"/>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="23">
         <v>11.33</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>612.6</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="26">
         <v>11</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="E19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="23">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>188.3</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="24">
+      <c r="C20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="23">
         <v>12</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="E20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="23">
         <v>1.944</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>1060</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="23">
         <v>13</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>1494</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="24">
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="23">
         <v>42</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="E22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="23">
         <v>0</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3353,7 +3352,7 @@
       <c r="E23" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -3376,7 +3375,7 @@
       <c r="E24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>1.67</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -3399,7 +3398,7 @@
       <c r="E25" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>0.83299999999999996</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -3422,7 +3421,7 @@
       <c r="E26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>1.944</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -3660,127 +3659,127 @@
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="25">
         <v>290</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.01</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.93</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.93</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>1</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25">
         <v>705.6</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
         <v>71.64</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -3869,7 +3868,7 @@
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>148</v>
       </c>
       <c r="C2" t="s">
@@ -3883,10 +3882,10 @@
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>454</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2002</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3897,10 +3896,10 @@
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>378</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1973</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3911,10 +3910,10 @@
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>247.5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>1997</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3925,10 +3924,10 @@
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>220</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2009</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3939,10 +3938,10 @@
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>296</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1975</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3953,10 +3952,10 @@
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>296</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>1976</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3967,10 +3966,10 @@
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>440</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>2008</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3981,10 +3980,10 @@
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>900</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>1971</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3995,10 +3994,10 @@
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>85</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>1960</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4009,10 +4008,10 @@
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>85</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1962</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4023,10 +4022,10 @@
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>410</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>1969</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4037,10 +4036,10 @@
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>410</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>1972</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4051,10 +4050,10 @@
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>170</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>1959</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4065,10 +4064,10 @@
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>200</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>1964</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4079,10 +4078,10 @@
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>100</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>1965</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4093,10 +4092,10 @@
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>100</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>1966</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4107,10 +4106,10 @@
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>216</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>1967</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -4121,10 +4120,10 @@
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>216</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>1968</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -4135,10 +4134,10 @@
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>100</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>1953</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -4149,10 +4148,10 @@
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>2.4</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>2015</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4163,10 +4162,10 @@
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>507</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>2000</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4177,10 +4176,10 @@
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>22.1</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>2012</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -4191,10 +4190,10 @@
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>30</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>2015</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -4205,10 +4204,10 @@
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>102</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>2012</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -4319,7 +4318,7 @@
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D3">
@@ -4336,7 +4335,7 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D4">
@@ -4353,7 +4352,7 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D5">
@@ -4370,7 +4369,7 @@
       <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D6">
@@ -4387,7 +4386,7 @@
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D7">
@@ -4404,7 +4403,7 @@
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D8">
@@ -4421,7 +4420,7 @@
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D9">
@@ -4438,7 +4437,7 @@
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D10">
@@ -4455,7 +4454,7 @@
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D11">
@@ -4472,7 +4471,7 @@
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D12">
@@ -4489,7 +4488,7 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D13">
@@ -4506,7 +4505,7 @@
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D14">
@@ -4523,7 +4522,7 @@
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D15">
@@ -4540,7 +4539,7 @@
       <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D16">
@@ -4557,7 +4556,7 @@
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D17">
@@ -4574,7 +4573,7 @@
       <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D18">
@@ -4591,7 +4590,7 @@
       <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D19">
@@ -4608,7 +4607,7 @@
       <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D20">
@@ -4625,7 +4624,7 @@
       <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D21">
@@ -4642,7 +4641,7 @@
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D22">
@@ -4659,7 +4658,7 @@
       <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D23">
@@ -4676,7 +4675,7 @@
       <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D24">
@@ -4693,7 +4692,7 @@
       <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D25">
@@ -4710,7 +4709,7 @@
       <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D26">
@@ -4727,7 +4726,7 @@
       <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D27">
@@ -4744,7 +4743,7 @@
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D28">
@@ -4761,7 +4760,7 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D29">
@@ -4778,7 +4777,7 @@
       <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D30">
@@ -4795,7 +4794,7 @@
       <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D31">
@@ -4812,7 +4811,7 @@
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D32">
@@ -4829,7 +4828,7 @@
       <c r="B33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D33">
@@ -4846,7 +4845,7 @@
       <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D34">
@@ -4863,7 +4862,7 @@
       <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D35">
@@ -4880,7 +4879,7 @@
       <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D36">
@@ -4897,7 +4896,7 @@
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D37">
@@ -4914,7 +4913,7 @@
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D38">
@@ -4931,7 +4930,7 @@
       <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D39">
@@ -4948,7 +4947,7 @@
       <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D40">
@@ -4965,7 +4964,7 @@
       <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D41">
@@ -4982,7 +4981,7 @@
       <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D42">
@@ -4999,7 +4998,7 @@
       <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D43">
@@ -5016,7 +5015,7 @@
       <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D44">
@@ -5033,7 +5032,7 @@
       <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D45">
@@ -5050,7 +5049,7 @@
       <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D46">
@@ -5067,7 +5066,7 @@
       <c r="B47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D47">
@@ -5084,7 +5083,7 @@
       <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D48">
@@ -5101,7 +5100,7 @@
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D49">
@@ -5118,7 +5117,7 @@
       <c r="B50" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D50">
@@ -5135,7 +5134,7 @@
       <c r="B51" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D51">
@@ -5152,7 +5151,7 @@
       <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D52">
@@ -5169,7 +5168,7 @@
       <c r="B53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D53">
@@ -5186,7 +5185,7 @@
       <c r="B54" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D54">
@@ -5203,7 +5202,7 @@
       <c r="B55" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D55">
@@ -5220,7 +5219,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D56">
@@ -5237,7 +5236,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D57">
@@ -5254,7 +5253,7 @@
       <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D58">
@@ -5271,7 +5270,7 @@
       <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D59">
@@ -5288,7 +5287,7 @@
       <c r="B60" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D60">
@@ -5305,7 +5304,7 @@
       <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D61">
@@ -5322,7 +5321,7 @@
       <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D62">
@@ -5339,7 +5338,7 @@
       <c r="B63" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D63">
@@ -5356,7 +5355,7 @@
       <c r="B64" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D64">
@@ -5373,7 +5372,7 @@
       <c r="B65" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D65">
@@ -5390,7 +5389,7 @@
       <c r="B66" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D66">
@@ -5407,7 +5406,7 @@
       <c r="B67" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D67">
@@ -5424,7 +5423,7 @@
       <c r="B68" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D68">
@@ -5441,7 +5440,7 @@
       <c r="B69" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D69">
@@ -5458,7 +5457,7 @@
       <c r="B70" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D70">
@@ -5475,7 +5474,7 @@
       <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D71">
@@ -5492,7 +5491,7 @@
       <c r="B72" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D72">
@@ -5509,7 +5508,7 @@
       <c r="B73" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D73">
@@ -5526,7 +5525,7 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D74">
@@ -5543,7 +5542,7 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D75">
@@ -5560,7 +5559,7 @@
       <c r="B76" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D76">
@@ -5577,7 +5576,7 @@
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D77">
@@ -5594,7 +5593,7 @@
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D78">
@@ -5611,7 +5610,7 @@
       <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D79">
@@ -5628,7 +5627,7 @@
       <c r="B80" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D80">
@@ -5645,7 +5644,7 @@
       <c r="B81" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D81">
@@ -5662,7 +5661,7 @@
       <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D82">
@@ -5679,7 +5678,7 @@
       <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D83">
@@ -5696,7 +5695,7 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D84">
@@ -5713,7 +5712,7 @@
       <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D85">
@@ -5730,7 +5729,7 @@
       <c r="B86" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D86">
@@ -5747,7 +5746,7 @@
       <c r="B87" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D87">
@@ -5764,7 +5763,7 @@
       <c r="B88" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D88">
@@ -5781,7 +5780,7 @@
       <c r="B89" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D89">
@@ -5798,7 +5797,7 @@
       <c r="B90" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D90">
@@ -5815,7 +5814,7 @@
       <c r="B91" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D91">
@@ -5832,7 +5831,7 @@
       <c r="B92" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D92">
@@ -5849,7 +5848,7 @@
       <c r="B93" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D93">
@@ -5866,7 +5865,7 @@
       <c r="B94" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D94">
@@ -5883,7 +5882,7 @@
       <c r="B95" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D95">
@@ -5900,7 +5899,7 @@
       <c r="B96" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D96">
@@ -5917,7 +5916,7 @@
       <c r="B97" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D97">
@@ -5934,7 +5933,7 @@
       <c r="B98" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D98">
@@ -6429,7 +6428,7 @@
       <c r="G3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>1000000</v>
       </c>
       <c r="I3" t="s">
@@ -6495,7 +6494,7 @@
       <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <v>1000000</v>
       </c>
       <c r="I5" t="s">
@@ -6530,7 +6529,7 @@
       <c r="G6" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>1000000</v>
       </c>
       <c r="I6" t="s">
@@ -6863,7 +6862,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6882,7 +6881,7 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6896,7 +6895,7 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6910,7 +6909,9 @@
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -6922,7 +6923,9 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6933,6 +6936,9 @@
       </c>
       <c r="C5" t="s">
         <v>87</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">

--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6C1FF-2895-42CF-A276-11584D4BEC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4871EF92-6019-420F-BD45-9B715043F64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2859,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3295,11 +3295,9 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>196</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="23">
         <v>13</v>
       </c>
@@ -3433,11 +3431,9 @@
         <v>134</v>
       </c>
       <c r="B27" s="7">
-        <v>1060</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>1460</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="7">
         <v>13</v>
       </c>
@@ -6862,7 +6858,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6896,20 +6892,20 @@
         <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>75.239999999999995</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
@@ -6917,38 +6913,71 @@
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>66.999600000000001</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="3">
-        <v>40</v>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>66.103200000000001</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+      <c r="A6">
+        <v>2031</v>
+      </c>
+      <c r="B6">
+        <v>65.77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
+      <c r="A7">
+        <v>2036</v>
+      </c>
+      <c r="B7">
+        <v>65.47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="A8">
+        <v>2041</v>
+      </c>
+      <c r="B8">
+        <v>65.41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4871EF92-6019-420F-BD45-9B715043F64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357843C-F40B-47D7-A090-6A748EA00DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2435,9 +2435,7 @@
       <c r="B12" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2458,11 +2456,9 @@
         <v>116</v>
       </c>
       <c r="B13" s="6">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2658,9 +2654,7 @@
       <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>196</v>
-      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2681,11 +2675,9 @@
         <v>122</v>
       </c>
       <c r="B22" s="22">
-        <v>31</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2806,9 +2798,7 @@
       <c r="B27" s="6">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>196</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2829,11 +2819,9 @@
         <v>135</v>
       </c>
       <c r="B28" s="6">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2860,7 +2848,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3295,7 +3283,7 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1130</v>
+        <v>1060</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23">
@@ -6857,7 +6845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357843C-F40B-47D7-A090-6A748EA00DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B48D9-9D3D-4B0E-9428-76AA0EF8A362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
   <si>
     <t>connection</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/table_8.2.pdf, 2019</t>
+  </si>
+  <si>
+    <t>IRP</t>
+  </si>
+  <si>
+    <t>https://energia.pr.gov/en/integrated-resource-plan/</t>
   </si>
 </sst>
 </file>
@@ -775,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,6 +821,8 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,6 +1365,14 @@
       </c>
       <c r="C25" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1372,6 +1388,7 @@
     <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{A7FDCA60-4042-424F-BE01-B472EFA0655F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1382,7 +1399,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,10 +2375,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="9">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="D9" s="9">
         <v>36.799999999999997</v>
@@ -2435,7 +2452,9 @@
       <c r="B12" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2458,7 +2477,9 @@
       <c r="B13" s="6">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2654,7 +2675,9 @@
       <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2677,7 +2700,9 @@
       <c r="B22" s="22">
         <v>25</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2798,7 +2823,9 @@
       <c r="B27" s="6">
         <v>22</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2821,7 +2848,9 @@
       <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2847,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3027,7 +3056,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="6">
-        <v>3935</v>
+        <v>4022</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>196</v>
@@ -3052,7 +3081,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12">
-        <v>425.4</v>
+        <v>425.38</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>142</v>
@@ -3149,7 +3178,7 @@
         <v>118</v>
       </c>
       <c r="B15" s="23">
-        <v>3749</v>
+        <v>3908</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>196</v>
@@ -3172,7 +3201,7 @@
         <v>215</v>
       </c>
       <c r="B16" s="23">
-        <v>3644</v>
+        <v>3981</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>196</v>
@@ -3195,17 +3224,17 @@
         <v>216</v>
       </c>
       <c r="B17" s="23">
-        <v>952</v>
+        <v>999</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="23">
+        <v>11.33</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="23">
         <v>1</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="23">
-        <v>11.33</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>195</v>
@@ -3216,17 +3245,17 @@
         <v>218</v>
       </c>
       <c r="B18" s="23">
-        <v>952</v>
+        <v>999</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="23">
+        <v>11.33</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="23">
         <v>1</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="23">
-        <v>11.33</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>195</v>
@@ -3283,9 +3312,11 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="22"/>
+        <v>1075</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" s="23">
         <v>13</v>
       </c>
@@ -3304,7 +3335,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="23">
-        <v>1494</v>
+        <v>1528</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>196</v>
@@ -3350,7 +3381,7 @@
         <v>132</v>
       </c>
       <c r="B24" s="7">
-        <v>3749</v>
+        <v>3908</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>196</v>
@@ -3419,9 +3450,11 @@
         <v>134</v>
       </c>
       <c r="B27" s="7">
-        <v>1460</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>1075</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D27" s="7">
         <v>13</v>
       </c>
@@ -3440,7 +3473,7 @@
         <v>135</v>
       </c>
       <c r="B28" s="7">
-        <v>1494</v>
+        <v>1528</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>196</v>
@@ -3824,7 +3857,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4119,7 +4152,7 @@
         <v>112</v>
       </c>
       <c r="B21" s="13">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C21" s="14">
         <v>1953</v>
@@ -4209,7 +4242,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4237,7 +4270,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>0.26214999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4250,7 +4283,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6304,8 +6337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6412,7 +6445,7 @@
       <c r="G3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="31">
         <v>1000000</v>
       </c>
       <c r="I3" t="s">
@@ -6478,7 +6511,7 @@
       <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="31">
         <v>1000000</v>
       </c>
       <c r="I5" t="s">
@@ -6513,7 +6546,7 @@
       <c r="G6" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="31">
         <v>1000000</v>
       </c>
       <c r="I6" t="s">
@@ -6852,7 +6885,6 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6887,13 +6919,13 @@
       <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="30">
         <v>75.239999999999995</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6901,13 +6933,13 @@
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4">
-        <v>66.999600000000001</v>
+      <c r="B4" s="30">
+        <v>66.489999999999995</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6915,8 +6947,8 @@
       <c r="A5">
         <v>2026</v>
       </c>
-      <c r="B5">
-        <v>66.103200000000001</v>
+      <c r="B5" s="30">
+        <v>67.28</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -6929,10 +6961,10 @@
       <c r="A6">
         <v>2031</v>
       </c>
-      <c r="B6">
-        <v>65.77</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="30">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D6">
@@ -6943,10 +6975,10 @@
       <c r="A7">
         <v>2036</v>
       </c>
-      <c r="B7">
-        <v>65.47</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="30">
+        <v>63.75</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D7">
@@ -6957,13 +6989,13 @@
       <c r="A8">
         <v>2041</v>
       </c>
-      <c r="B8">
-        <v>65.41</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="30">
+        <v>63.75</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
     </row>
@@ -7021,7 +7053,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7169,6 +7201,9 @@
       <c r="K4" t="s">
         <v>184</v>
       </c>
+      <c r="L4" s="1">
+        <v>2028</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7333,7 +7368,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B48D9-9D3D-4B0E-9428-76AA0EF8A362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58ED324-4058-4B36-8720-75E465257398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Demand" sheetId="3" r:id="rId6"/>
     <sheet name="DiscountRate" sheetId="5" r:id="rId7"/>
     <sheet name="Fuels" sheetId="6" r:id="rId8"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId9"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId10"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId9"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId10"/>
     <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId11"/>
     <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId12"/>
     <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId13"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="224">
   <si>
     <t>connection</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>https://energia.pr.gov/en/integrated-resource-plan/</t>
+  </si>
+  <si>
+    <t>CapacityCredit</t>
+  </si>
+  <si>
+    <t>[fr]</t>
   </si>
 </sst>
 </file>
@@ -829,7 +835,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1395,761 +1415,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>129</v>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1920</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H15 D19:H28">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6338,7 +5656,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7364,58 +6682,854 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1920</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2015</v>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:D15 D19:D28 F19:H28 F3:H15">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D18 F16:H18">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E15 E19:E28">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58ED324-4058-4B36-8720-75E465257398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B595C46A-C965-4A87-8E3D-F51103B8ECC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -3559,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.26214999999999999</v>
+        <v>0.36215000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -6197,7 +6197,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6371,7 +6371,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6519,9 +6519,7 @@
       <c r="K4" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="1">
-        <v>2028</v>
-      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B595C46A-C965-4A87-8E3D-F51103B8ECC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F33C0-7FDE-4F3B-8444-4A9A464C9547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,7 +1558,7 @@
       <c r="C3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="29">
         <v>34.799999999999997</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1583,7 +1583,7 @@
       <c r="C4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="29">
         <v>29.9</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1606,7 +1606,7 @@
       <c r="C5" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="29">
         <v>40</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1629,7 +1629,7 @@
       <c r="C6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="29">
         <v>35.299999999999997</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1652,7 +1652,7 @@
       <c r="C7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="29">
         <v>34.6</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1675,7 +1675,7 @@
       <c r="C8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="29">
         <v>34.1</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1698,7 +1698,7 @@
       <c r="C9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1723,7 +1723,7 @@
       <c r="C10" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="29">
         <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1748,7 +1748,7 @@
       <c r="C11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="29">
         <v>45.5</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1773,7 +1773,7 @@
       <c r="C12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1798,7 +1798,7 @@
       <c r="C13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1821,7 +1821,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22">
+      <c r="D14" s="25">
         <v>85</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -1846,7 +1846,7 @@
       <c r="C15" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="25">
         <v>25.3</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -1946,8 +1946,8 @@
       <c r="C19" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="22">
-        <v>62.02</v>
+      <c r="D19" s="25">
+        <v>62.12</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>149</v>
@@ -1971,8 +1971,8 @@
       <c r="C20" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="22">
-        <v>42.47</v>
+      <c r="D20" s="25">
+        <v>42.34</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>149</v>
@@ -1996,7 +1996,7 @@
       <c r="C21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="25">
         <v>36.799999999999997</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -2021,7 +2021,7 @@
       <c r="C22" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="25">
         <v>36.799999999999997</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -2044,7 +2044,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="9">
+      <c r="D23" s="29">
         <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -2069,7 +2069,7 @@
       <c r="C24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="29">
         <v>25.3</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -2094,7 +2094,7 @@
       <c r="C25" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="29">
         <v>54.17</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -2119,8 +2119,8 @@
       <c r="C26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="9">
-        <v>37.6</v>
+      <c r="D26" s="29">
+        <v>37.11</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>149</v>
@@ -2144,7 +2144,7 @@
       <c r="C27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -2169,7 +2169,7 @@
       <c r="C28" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -3099,7 +3099,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25">
-        <v>705.6</v>
+        <v>738</v>
       </c>
       <c r="G21" s="25"/>
     </row>
@@ -3112,7 +3112,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25">
-        <v>71.64</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="G22" s="25"/>
     </row>
@@ -3120,6 +3120,7 @@
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -3131,6 +3132,7 @@
       <c r="E24" t="s">
         <v>143</v>
       </c>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -3142,26 +3144,28 @@
       <c r="C25" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F27">
-        <v>705.6</v>
+      <c r="F27" s="29">
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="3">
-        <v>71.64</v>
+      <c r="F28" s="25">
+        <v>75.239999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3179,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3559,7 +3563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6371,7 +6375,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6474,8 +6478,8 @@
       <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D3">
-        <v>2.66</v>
+      <c r="D3" s="29">
+        <v>0.72</v>
       </c>
       <c r="E3" t="s">
         <v>92</v>
@@ -6501,8 +6505,8 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4">
-        <v>2.7</v>
+      <c r="D4" s="29">
+        <v>-0.16</v>
       </c>
       <c r="E4" t="s">
         <v>92</v>
@@ -6531,8 +6535,8 @@
       <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5">
-        <v>2.8</v>
+      <c r="D5" s="29">
+        <v>0.23</v>
       </c>
       <c r="E5" t="s">
         <v>92</v>
@@ -6557,6 +6561,7 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="D6" s="29"/>
       <c r="J6">
         <v>40</v>
       </c>
@@ -6571,6 +6576,7 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="D7" s="29"/>
       <c r="H7">
         <v>39.51</v>
       </c>
@@ -6594,8 +6600,8 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D8">
-        <v>3.05</v>
+      <c r="D8" s="29">
+        <v>1.2</v>
       </c>
       <c r="E8" t="s">
         <v>92</v>
@@ -6623,8 +6629,8 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9">
-        <v>2.0699999999999998</v>
+      <c r="D9" s="29">
+        <v>1.1399999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
@@ -6684,7 +6690,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6952,7 +6958,7 @@
         <v>129</v>
       </c>
       <c r="I9">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">

--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F33C0-7FDE-4F3B-8444-4A9A464C9547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A94273C-AE9A-413E-9B76-1951B24AA6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1475,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -3179,7 +3179,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3604,7 +3604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>

--- a/projects/puerto_rico_stoch/data/data_X.xlsx
+++ b/projects/puerto_rico_stoch/data/data_X.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A94273C-AE9A-413E-9B76-1951B24AA6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6195A5-CE1D-4DC2-B1C5-358A7ECDDDCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -29,12 +29,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -787,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -830,6 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3604,7 +3599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -5659,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5799,7 +5794,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4">
-        <v>688.39634941329859</v>
+        <v>500.16300000000001</v>
       </c>
       <c r="I4" t="s">
         <v>199</v>
@@ -5923,8 +5918,8 @@
       <c r="G8" t="s">
         <v>184</v>
       </c>
-      <c r="H8">
-        <v>4531.3620000000001</v>
+      <c r="H8" s="32">
+        <v>4867.5</v>
       </c>
       <c r="I8" t="s">
         <v>199</v>
@@ -5958,8 +5953,8 @@
       <c r="G9" t="s">
         <v>184</v>
       </c>
-      <c r="H9">
-        <v>7746.9369999999999</v>
+      <c r="H9" s="32">
+        <v>15083.665999999999</v>
       </c>
       <c r="I9" t="s">
         <v>199</v>
